--- a/biology/Botanique/Adesmia_balsamica/Adesmia_balsamica.xlsx
+++ b/biology/Botanique/Adesmia_balsamica/Adesmia_balsamica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adesmia balsamica est une espèce de plantes à fleurs pérenne de la famille des Fabaceae, de la sous-famille des Faboideae et du genre Adesmia. C'est un petit arbuste qui dégage un arôme balsamique parfumé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adesmia balsamica est une espèce de plantes à fleurs pérenne de la famille des Fabaceae, de la sous-famille des Faboideae et du genre Adesmia. C'est un petit arbuste qui dégage un arôme balsamique parfumé.
 </t>
         </is>
       </c>
@@ -511,12 +523,49 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce se trouve dans certaines parties de l'Amérique du Sud, un exemple étant le parc national de La Campana au Chili[2].
-Synonymie
-Homotypic Synonymes : * Patagonium balsamicum (Bertero ex Colla) Kuntze[3]
-Hétérotypic Synonyms : * Adesmia balsamifera Hook. &amp; Arn.First published in Bot. Beechey Voy.: 20 (1830)[4],</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se trouve dans certaines parties de l'Amérique du Sud, un exemple étant le parc national de La Campana au Chili.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adesmia_balsamica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adesmia_balsamica</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Homotypic Synonymes : * Patagonium balsamicum (Bertero ex Colla) Kuntze
+Hétérotypic Synonyms : * Adesmia balsamifera Hook. &amp; Arn.First published in Bot. Beechey Voy.: 20 (1830),</t>
         </is>
       </c>
     </row>
